--- a/biology/Zoologie/Anthenea/Anthenea.xlsx
+++ b/biology/Zoologie/Anthenea/Anthenea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthenea est un genre d'étoiles de mer de la famille des Oreasteridae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles trapues et pentagonales. Les bras sont courts, très arrondis à la pointe. La peau est épaisse, dissimulant les plaques abactinales au moins chez les spécimens matures, et les rendant moins anguleuses. On y note des granules marginaux plus ou moins grossiers. Les plaques et tubercules primaires ne sont plus grands que les autres au niveau carinal. Les plaques adambulacraires comportent au moins trois séries d'épines[1].
-Les genres proches Gymnanthenea et Goniodiscaster peuvent être sources de confusion[2]. 
-Les espèces de ce genre se rencontrent essentiellement das l'océan Pacifique ouest, et plus précisément la région indonésienne : on n'en connaît pas d'observation à l'ouest de la mer d'Andaman, et une seule espèce est signalée à l'est du Vanuatu[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles trapues et pentagonales. Les bras sont courts, très arrondis à la pointe. La peau est épaisse, dissimulant les plaques abactinales au moins chez les spécimens matures, et les rendant moins anguleuses. On y note des granules marginaux plus ou moins grossiers. Les plaques et tubercules primaires ne sont plus grands que les autres au niveau carinal. Les plaques adambulacraires comportent au moins trois séries d'épines.
+Les genres proches Gymnanthenea et Goniodiscaster peuvent être sources de confusion. 
+Les espèces de ce genre se rencontrent essentiellement das l'océan Pacifique ouest, et plus précisément la région indonésienne : on n'en connaît pas d'observation à l'ouest de la mer d'Andaman, et une seule espèce est signalée à l'est du Vanuatu. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 octobre 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 octobre 2014) :
 Anthenea acanthodes H.L. Clark, 1938 -- Australie tropicale
 Anthenea aspera Döderlein, 1915 -- Région indonésienne et Australie tropicale
 Anthenea australiae Döderlein, 1915 -- Australie
